--- a/DOCUMENT/詳細設計書/機能設計書/機能設計書[見積登録].xlsx
+++ b/DOCUMENT/詳細設計書/機能設計書/機能設計書[見積登録].xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\見積システム\paperwork_system\DOCUMENT\詳細設計書\機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\My PC (DESKTOP-T10UG08)\Desktop\debug#4\paperwork-system\DOCUMENT\詳細設計書\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC17B2-5F59-481F-96B7-198EE1144AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F3CA32-4017-48A1-9566-7E1FC2D0FAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
   <si>
     <t>作成者</t>
   </si>
@@ -1304,6 +1304,39 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・quotations_detailsテーブルのorderフィールドに、item_idフィールドの後半の設定値（item_idフィールド設定値：{1}_{2}　{2}部分で設定した値）で登録処理を行う</t>
+    <rPh sb="49" eb="51">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7, フォームに対応した見積書詳細テーブルへ登録処理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書詳細テーブルorderフィールドの登録処理を追加</t>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1312,7 +1345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1369,6 +1402,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1564,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1698,6 +1737,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,29 +1776,35 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1749,21 +1818,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1773,20 +1827,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5028,56 +5070,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="47"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="56">
         <v>44291</v>
       </c>
-      <c r="R2" s="47"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="8"/>
@@ -5103,433 +5145,441 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>44291</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="B6" s="45">
+        <v>44473</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="12"/>
@@ -5576,6 +5626,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -5584,78 +5706,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -5669,7 +5719,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY931"/>
+  <dimension ref="A1:AY932"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -5687,128 +5737,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="64" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="67" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="70" t="s">
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="63"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="67"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AT1" s="2"/>
-      <c r="AU1" s="61">
+      <c r="AU1" s="71">
         <v>44291</v>
       </c>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="63"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="67"/>
     </row>
     <row r="2" spans="1:51" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="70" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="58" t="s">
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="60"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="71">
+        <v>44473</v>
+      </c>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="67"/>
     </row>
     <row r="3" spans="1:51" ht="13.2" customHeight="1">
       <c r="A3" s="28" t="s">
@@ -11175,16 +11229,16 @@
       <c r="AD113" s="22"/>
       <c r="AE113" s="22"/>
       <c r="AF113" s="23"/>
-      <c r="AG113" s="72" t="s">
+      <c r="AG113" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH113" s="73"/>
-      <c r="AI113" s="73"/>
-      <c r="AJ113" s="73"/>
-      <c r="AK113" s="73"/>
-      <c r="AL113" s="73"/>
-      <c r="AM113" s="73"/>
-      <c r="AN113" s="74"/>
+      <c r="AH113" s="60"/>
+      <c r="AI113" s="60"/>
+      <c r="AJ113" s="60"/>
+      <c r="AK113" s="60"/>
+      <c r="AL113" s="60"/>
+      <c r="AM113" s="60"/>
+      <c r="AN113" s="61"/>
       <c r="AO113" s="14"/>
       <c r="AP113" s="14"/>
       <c r="AQ113" s="14"/>
@@ -11238,16 +11292,16 @@
       <c r="AD114" s="22"/>
       <c r="AE114" s="22"/>
       <c r="AF114" s="23"/>
-      <c r="AG114" s="72" t="s">
+      <c r="AG114" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH114" s="73"/>
-      <c r="AI114" s="73"/>
-      <c r="AJ114" s="73"/>
-      <c r="AK114" s="73"/>
-      <c r="AL114" s="73"/>
-      <c r="AM114" s="73"/>
-      <c r="AN114" s="74"/>
+      <c r="AH114" s="60"/>
+      <c r="AI114" s="60"/>
+      <c r="AJ114" s="60"/>
+      <c r="AK114" s="60"/>
+      <c r="AL114" s="60"/>
+      <c r="AM114" s="60"/>
+      <c r="AN114" s="61"/>
       <c r="AO114" s="14"/>
       <c r="AP114" s="14"/>
       <c r="AQ114" s="14"/>
@@ -11301,16 +11355,16 @@
       <c r="AD115" s="22"/>
       <c r="AE115" s="22"/>
       <c r="AF115" s="23"/>
-      <c r="AG115" s="72" t="s">
+      <c r="AG115" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH115" s="73"/>
-      <c r="AI115" s="73"/>
-      <c r="AJ115" s="73"/>
-      <c r="AK115" s="73"/>
-      <c r="AL115" s="73"/>
-      <c r="AM115" s="73"/>
-      <c r="AN115" s="74"/>
+      <c r="AH115" s="60"/>
+      <c r="AI115" s="60"/>
+      <c r="AJ115" s="60"/>
+      <c r="AK115" s="60"/>
+      <c r="AL115" s="60"/>
+      <c r="AM115" s="60"/>
+      <c r="AN115" s="61"/>
       <c r="AO115" s="14"/>
       <c r="AP115" s="14"/>
       <c r="AQ115" s="14"/>
@@ -11364,16 +11418,16 @@
       <c r="AD116" s="22"/>
       <c r="AE116" s="22"/>
       <c r="AF116" s="23"/>
-      <c r="AG116" s="72" t="s">
+      <c r="AG116" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH116" s="73"/>
-      <c r="AI116" s="73"/>
-      <c r="AJ116" s="73"/>
-      <c r="AK116" s="73"/>
-      <c r="AL116" s="73"/>
-      <c r="AM116" s="73"/>
-      <c r="AN116" s="74"/>
+      <c r="AH116" s="60"/>
+      <c r="AI116" s="60"/>
+      <c r="AJ116" s="60"/>
+      <c r="AK116" s="60"/>
+      <c r="AL116" s="60"/>
+      <c r="AM116" s="60"/>
+      <c r="AN116" s="61"/>
       <c r="AO116" s="14"/>
       <c r="AP116" s="14"/>
       <c r="AQ116" s="14"/>
@@ -11427,16 +11481,16 @@
       <c r="AD117" s="22"/>
       <c r="AE117" s="22"/>
       <c r="AF117" s="23"/>
-      <c r="AG117" s="72" t="s">
+      <c r="AG117" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH117" s="73"/>
-      <c r="AI117" s="73"/>
-      <c r="AJ117" s="73"/>
-      <c r="AK117" s="73"/>
-      <c r="AL117" s="73"/>
-      <c r="AM117" s="73"/>
-      <c r="AN117" s="74"/>
+      <c r="AH117" s="60"/>
+      <c r="AI117" s="60"/>
+      <c r="AJ117" s="60"/>
+      <c r="AK117" s="60"/>
+      <c r="AL117" s="60"/>
+      <c r="AM117" s="60"/>
+      <c r="AN117" s="61"/>
       <c r="AO117" s="14"/>
       <c r="AP117" s="14"/>
       <c r="AQ117" s="14"/>
@@ -11490,16 +11544,16 @@
       <c r="AD118" s="22"/>
       <c r="AE118" s="22"/>
       <c r="AF118" s="23"/>
-      <c r="AG118" s="72" t="s">
+      <c r="AG118" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="AH118" s="73"/>
-      <c r="AI118" s="73"/>
-      <c r="AJ118" s="73"/>
-      <c r="AK118" s="73"/>
-      <c r="AL118" s="73"/>
-      <c r="AM118" s="73"/>
-      <c r="AN118" s="74"/>
+      <c r="AH118" s="60"/>
+      <c r="AI118" s="60"/>
+      <c r="AJ118" s="60"/>
+      <c r="AK118" s="60"/>
+      <c r="AL118" s="60"/>
+      <c r="AM118" s="60"/>
+      <c r="AN118" s="61"/>
       <c r="AO118" s="14"/>
       <c r="AP118" s="14"/>
       <c r="AQ118" s="14"/>
@@ -12079,16 +12133,16 @@
       <c r="F129" s="22"/>
       <c r="G129" s="22"/>
       <c r="H129" s="23"/>
-      <c r="I129" s="72" t="s">
+      <c r="I129" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J129" s="73"/>
-      <c r="K129" s="73"/>
-      <c r="L129" s="73"/>
-      <c r="M129" s="73"/>
-      <c r="N129" s="73"/>
-      <c r="O129" s="73"/>
-      <c r="P129" s="74"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="60"/>
+      <c r="N129" s="60"/>
+      <c r="O129" s="60"/>
+      <c r="P129" s="61"/>
       <c r="Q129" s="15"/>
       <c r="R129" s="22"/>
       <c r="S129" s="22"/>
@@ -14772,7 +14826,7 @@
     <row r="178" spans="1:51" ht="13.2" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="14" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
@@ -14827,7 +14881,7 @@
     <row r="179" spans="1:51" ht="13.2" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
@@ -14881,7 +14935,9 @@
     </row>
     <row r="180" spans="1:51" ht="13.2" customHeight="1">
       <c r="A180" s="16"/>
-      <c r="B180" s="14"/>
+      <c r="B180" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
@@ -14934,9 +14990,7 @@
     </row>
     <row r="181" spans="1:51" ht="13.2" customHeight="1">
       <c r="A181" s="16"/>
-      <c r="B181" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
@@ -14989,25 +15043,23 @@
     </row>
     <row r="182" spans="1:51" ht="13.2" customHeight="1">
       <c r="A182" s="16"/>
-      <c r="B182" s="24" t="s">
-        <v>16</v>
+      <c r="B182" s="14" t="s">
+        <v>102</v>
       </c>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J182" s="25"/>
-      <c r="K182" s="25"/>
-      <c r="L182" s="25"/>
-      <c r="M182" s="25"/>
-      <c r="N182" s="25"/>
-      <c r="O182" s="25"/>
-      <c r="P182" s="26"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
       <c r="Q182" s="14"/>
       <c r="R182" s="14"/>
       <c r="S182" s="14"/>
@@ -15046,25 +15098,25 @@
     </row>
     <row r="183" spans="1:51" ht="13.2" customHeight="1">
       <c r="A183" s="16"/>
-      <c r="B183" s="15" t="s">
-        <v>53</v>
+      <c r="B183" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
-      <c r="H183" s="23"/>
-      <c r="I183" s="15" t="s">
-        <v>101</v>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="26"/>
+      <c r="I183" s="24" t="s">
+        <v>100</v>
       </c>
-      <c r="J183" s="22"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="23"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25"/>
+      <c r="L183" s="25"/>
+      <c r="M183" s="25"/>
+      <c r="N183" s="25"/>
+      <c r="O183" s="25"/>
+      <c r="P183" s="26"/>
       <c r="Q183" s="14"/>
       <c r="R183" s="14"/>
       <c r="S183" s="14"/>
@@ -15104,7 +15156,7 @@
     <row r="184" spans="1:51" ht="13.2" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="22"/>
@@ -15161,7 +15213,7 @@
     <row r="185" spans="1:51" ht="13.2" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
@@ -15169,8 +15221,8 @@
       <c r="F185" s="22"/>
       <c r="G185" s="22"/>
       <c r="H185" s="23"/>
-      <c r="I185" s="15">
-        <v>0</v>
+      <c r="I185" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
@@ -15218,7 +15270,7 @@
     <row r="186" spans="1:51" ht="13.2" customHeight="1">
       <c r="A186" s="16"/>
       <c r="B186" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
@@ -15226,8 +15278,8 @@
       <c r="F186" s="22"/>
       <c r="G186" s="22"/>
       <c r="H186" s="23"/>
-      <c r="I186" s="15" t="s">
-        <v>101</v>
+      <c r="I186" s="15">
+        <v>0</v>
       </c>
       <c r="J186" s="22"/>
       <c r="K186" s="22"/>
@@ -15275,7 +15327,7 @@
     <row r="187" spans="1:51" ht="13.2" customHeight="1">
       <c r="A187" s="16"/>
       <c r="B187" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
@@ -15283,8 +15335,8 @@
       <c r="F187" s="22"/>
       <c r="G187" s="22"/>
       <c r="H187" s="23"/>
-      <c r="I187" s="15">
-        <v>0</v>
+      <c r="I187" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="J187" s="22"/>
       <c r="K187" s="22"/>
@@ -15332,7 +15384,7 @@
     <row r="188" spans="1:51" ht="13.2" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
@@ -15388,21 +15440,25 @@
     </row>
     <row r="189" spans="1:51" ht="13.2" customHeight="1">
       <c r="A189" s="16"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="K189" s="14"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="14"/>
-      <c r="O189" s="14"/>
-      <c r="P189" s="14"/>
+      <c r="B189" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="23"/>
+      <c r="I189" s="15">
+        <v>0</v>
+      </c>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="22"/>
+      <c r="N189" s="22"/>
+      <c r="O189" s="22"/>
+      <c r="P189" s="23"/>
       <c r="Q189" s="14"/>
       <c r="R189" s="14"/>
       <c r="S189" s="14"/>
@@ -15493,9 +15549,7 @@
       <c r="AY190" s="18"/>
     </row>
     <row r="191" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A191" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="A191" s="16"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -15548,10 +15602,10 @@
       <c r="AY191" s="18"/>
     </row>
     <row r="192" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A192" s="16"/>
-      <c r="B192" s="14" t="s">
-        <v>97</v>
+      <c r="A192" s="32" t="s">
+        <v>96</v>
       </c>
+      <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
@@ -15604,7 +15658,9 @@
     </row>
     <row r="193" spans="1:51" ht="13.2" customHeight="1">
       <c r="A193" s="16"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
@@ -15709,9 +15765,7 @@
       <c r="AY194" s="18"/>
     </row>
     <row r="195" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A195" s="32" t="s">
-        <v>119</v>
-      </c>
+      <c r="A195" s="16"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
@@ -15764,10 +15818,10 @@
       <c r="AY195" s="18"/>
     </row>
     <row r="196" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A196" s="16"/>
-      <c r="B196" s="14" t="s">
-        <v>120</v>
+      <c r="A196" s="32" t="s">
+        <v>119</v>
       </c>
+      <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
@@ -15820,7 +15874,9 @@
     </row>
     <row r="197" spans="1:51" ht="13.2" customHeight="1">
       <c r="A197" s="16"/>
-      <c r="B197" s="14"/>
+      <c r="B197" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
@@ -15874,9 +15930,7 @@
     <row r="198" spans="1:51" ht="13.2" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="14"/>
-      <c r="C198" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="C198" s="14"/>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
       <c r="F198" s="14"/>
@@ -15929,7 +15983,9 @@
     <row r="199" spans="1:51" ht="13.2" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="14"/>
-      <c r="C199" s="14"/>
+      <c r="C199" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="D199" s="14"/>
       <c r="E199" s="14"/>
       <c r="F199" s="14"/>
@@ -15939,9 +15995,7 @@
       <c r="J199" s="14"/>
       <c r="K199" s="14"/>
       <c r="L199" s="14"/>
-      <c r="M199" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="M199" s="14"/>
       <c r="N199" s="14"/>
       <c r="O199" s="14"/>
       <c r="P199" s="14"/>
@@ -15994,7 +16048,9 @@
       <c r="J200" s="14"/>
       <c r="K200" s="14"/>
       <c r="L200" s="14"/>
-      <c r="M200" s="14"/>
+      <c r="M200" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="N200" s="14"/>
       <c r="O200" s="14"/>
       <c r="P200" s="14"/>
@@ -16088,9 +16144,7 @@
       <c r="AY201" s="18"/>
     </row>
     <row r="202" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A202" s="32" t="s">
-        <v>122</v>
-      </c>
+      <c r="A202" s="16"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
@@ -16143,10 +16197,10 @@
       <c r="AY202" s="18"/>
     </row>
     <row r="203" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A203" s="32"/>
-      <c r="B203" s="14" t="s">
-        <v>124</v>
+      <c r="A203" s="32" t="s">
+        <v>122</v>
       </c>
+      <c r="B203" s="14"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
       <c r="E203" s="14"/>
@@ -16200,7 +16254,7 @@
     <row r="204" spans="1:51" ht="13.2" customHeight="1">
       <c r="A204" s="32"/>
       <c r="B204" s="14" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -16255,7 +16309,7 @@
     <row r="205" spans="1:51" ht="13.2" customHeight="1">
       <c r="A205" s="32"/>
       <c r="B205" s="14" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
@@ -16308,9 +16362,9 @@
       <c r="AY205" s="18"/>
     </row>
     <row r="206" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A206" s="16"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
@@ -16364,7 +16418,9 @@
     </row>
     <row r="207" spans="1:51" ht="13.2" customHeight="1">
       <c r="A207" s="16"/>
-      <c r="B207" s="14"/>
+      <c r="B207" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
       <c r="E207" s="14"/>
@@ -16418,9 +16474,7 @@
     <row r="208" spans="1:51" ht="13.2" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="14"/>
-      <c r="C208" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
       <c r="F208" s="14"/>
@@ -16473,10 +16527,10 @@
     <row r="209" spans="1:51" ht="13.2" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14" t="s">
-        <v>128</v>
+      <c r="C209" s="14" t="s">
+        <v>130</v>
       </c>
+      <c r="D209" s="14"/>
       <c r="E209" s="14"/>
       <c r="F209" s="14"/>
       <c r="G209" s="14"/>
@@ -16530,7 +16584,7 @@
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
       <c r="D210" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E210" s="14"/>
       <c r="F210" s="14"/>
@@ -16585,7 +16639,7 @@
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E211" s="14"/>
       <c r="F211" s="14"/>
@@ -16640,7 +16694,7 @@
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
@@ -16695,7 +16749,7 @@
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
       <c r="D213" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E213" s="14"/>
       <c r="F213" s="14"/>
@@ -16750,7 +16804,7 @@
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E214" s="14"/>
       <c r="F214" s="14"/>
@@ -16804,7 +16858,9 @@
       <c r="A215" s="16"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
+      <c r="D215" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="E215" s="14"/>
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
@@ -16855,9 +16911,7 @@
     </row>
     <row r="216" spans="1:51" ht="13.2" customHeight="1">
       <c r="A216" s="16"/>
-      <c r="B216" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
@@ -16910,7 +16964,9 @@
     </row>
     <row r="217" spans="1:51" ht="13.2" customHeight="1">
       <c r="A217" s="16"/>
-      <c r="B217" s="14"/>
+      <c r="B217" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
@@ -17015,9 +17071,7 @@
       <c r="AY218" s="18"/>
     </row>
     <row r="219" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A219" s="32" t="s">
-        <v>134</v>
-      </c>
+      <c r="A219" s="16"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
@@ -17070,10 +17124,10 @@
       <c r="AY219" s="18"/>
     </row>
     <row r="220" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A220" s="16"/>
-      <c r="B220" s="14" t="s">
-        <v>135</v>
+      <c r="A220" s="32" t="s">
+        <v>134</v>
       </c>
+      <c r="B220" s="14"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
@@ -17126,7 +17180,9 @@
     </row>
     <row r="221" spans="1:51" ht="13.2" customHeight="1">
       <c r="A221" s="16"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
@@ -17231,9 +17287,7 @@
       <c r="AY222" s="18"/>
     </row>
     <row r="223" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A223" s="32" t="s">
-        <v>136</v>
-      </c>
+      <c r="A223" s="16"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
@@ -17286,10 +17340,10 @@
       <c r="AY223" s="18"/>
     </row>
     <row r="224" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A224" s="31"/>
-      <c r="B224" s="14" t="s">
-        <v>36</v>
+      <c r="A224" s="32" t="s">
+        <v>136</v>
       </c>
+      <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
@@ -17342,7 +17396,9 @@
     </row>
     <row r="225" spans="1:51" ht="13.2" customHeight="1">
       <c r="A225" s="31"/>
-      <c r="B225" s="14"/>
+      <c r="B225" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
@@ -17394,10 +17450,8 @@
       <c r="AY225" s="18"/>
     </row>
     <row r="226" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A226" s="16"/>
-      <c r="B226" s="44" t="s">
-        <v>137</v>
-      </c>
+      <c r="A226" s="31"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
@@ -17450,10 +17504,10 @@
     </row>
     <row r="227" spans="1:51" ht="13.2" customHeight="1">
       <c r="A227" s="16"/>
-      <c r="B227" s="14"/>
-      <c r="C227" s="14" t="s">
-        <v>138</v>
+      <c r="B227" s="44" t="s">
+        <v>137</v>
       </c>
+      <c r="C227" s="14"/>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
       <c r="F227" s="14"/>
@@ -17507,7 +17561,7 @@
       <c r="A228" s="16"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
@@ -17561,7 +17615,9 @@
     <row r="229" spans="1:51" ht="13.2" customHeight="1">
       <c r="A229" s="16"/>
       <c r="B229" s="14"/>
-      <c r="C229" s="14"/>
+      <c r="C229" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
       <c r="F229" s="14"/>
@@ -17665,9 +17721,7 @@
       <c r="AY230" s="18"/>
     </row>
     <row r="231" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A231" s="32" t="s">
-        <v>139</v>
-      </c>
+      <c r="A231" s="16"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
@@ -17720,10 +17774,10 @@
       <c r="AY231" s="18"/>
     </row>
     <row r="232" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A232" s="16"/>
-      <c r="B232" s="14" t="s">
-        <v>37</v>
+      <c r="A232" s="32" t="s">
+        <v>139</v>
       </c>
+      <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
       <c r="E232" s="14"/>
@@ -17777,7 +17831,7 @@
     <row r="233" spans="1:51" ht="13.2" customHeight="1">
       <c r="A233" s="16"/>
       <c r="B233" s="14" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
@@ -17831,7 +17885,9 @@
     </row>
     <row r="234" spans="1:51" ht="13.2" customHeight="1">
       <c r="A234" s="16"/>
-      <c r="B234" s="14"/>
+      <c r="B234" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
       <c r="E234" s="14"/>
@@ -17885,9 +17941,7 @@
     <row r="235" spans="1:51" ht="13.2" customHeight="1">
       <c r="A235" s="16"/>
       <c r="B235" s="14"/>
-      <c r="C235" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="C235" s="14"/>
       <c r="D235" s="14"/>
       <c r="E235" s="14"/>
       <c r="F235" s="14"/>
@@ -17940,7 +17994,9 @@
     <row r="236" spans="1:51" ht="13.2" customHeight="1">
       <c r="A236" s="16"/>
       <c r="B236" s="14"/>
-      <c r="C236" s="14"/>
+      <c r="C236" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="D236" s="14"/>
       <c r="E236" s="14"/>
       <c r="F236" s="14"/>
@@ -18044,9 +18100,7 @@
       <c r="AY237" s="18"/>
     </row>
     <row r="238" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A238" s="32" t="s">
-        <v>140</v>
-      </c>
+      <c r="A238" s="16"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
@@ -18099,10 +18153,10 @@
       <c r="AY238" s="18"/>
     </row>
     <row r="239" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A239" s="31"/>
-      <c r="B239" s="14" t="s">
-        <v>36</v>
+      <c r="A239" s="32" t="s">
+        <v>140</v>
       </c>
+      <c r="B239" s="14"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
       <c r="E239" s="14"/>
@@ -18155,7 +18209,9 @@
     </row>
     <row r="240" spans="1:51" ht="13.2" customHeight="1">
       <c r="A240" s="31"/>
-      <c r="B240" s="14"/>
+      <c r="B240" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
       <c r="E240" s="14"/>
@@ -18207,10 +18263,8 @@
       <c r="AY240" s="18"/>
     </row>
     <row r="241" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A241" s="16"/>
-      <c r="B241" s="44" t="s">
-        <v>141</v>
-      </c>
+      <c r="A241" s="31"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
@@ -18263,10 +18317,10 @@
     </row>
     <row r="242" spans="1:51" ht="13.2" customHeight="1">
       <c r="A242" s="16"/>
-      <c r="B242" s="14"/>
-      <c r="C242" s="14" t="s">
-        <v>116</v>
+      <c r="B242" s="44" t="s">
+        <v>141</v>
       </c>
+      <c r="C242" s="14"/>
       <c r="D242" s="14"/>
       <c r="E242" s="14"/>
       <c r="F242" s="14"/>
@@ -18320,7 +18374,7 @@
       <c r="A243" s="16"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="14"/>
@@ -18374,7 +18428,9 @@
     <row r="244" spans="1:51" ht="13.2" customHeight="1">
       <c r="A244" s="16"/>
       <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
+      <c r="C244" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D244" s="14"/>
       <c r="E244" s="14"/>
       <c r="F244" s="14"/>
@@ -18478,9 +18534,7 @@
       <c r="AY245" s="18"/>
     </row>
     <row r="246" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A246" s="32" t="s">
-        <v>146</v>
-      </c>
+      <c r="A246" s="16"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
@@ -18533,10 +18587,10 @@
       <c r="AY246" s="18"/>
     </row>
     <row r="247" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A247" s="16"/>
-      <c r="B247" s="14" t="s">
-        <v>142</v>
+      <c r="A247" s="32" t="s">
+        <v>146</v>
       </c>
+      <c r="B247" s="14"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
       <c r="E247" s="14"/>
@@ -18589,7 +18643,9 @@
     </row>
     <row r="248" spans="1:51" ht="13.2" customHeight="1">
       <c r="A248" s="16"/>
-      <c r="B248" s="14"/>
+      <c r="B248" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
       <c r="E248" s="14"/>
@@ -18643,9 +18699,7 @@
     <row r="249" spans="1:51" ht="13.2" customHeight="1">
       <c r="A249" s="16"/>
       <c r="B249" s="14"/>
-      <c r="C249" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="C249" s="14"/>
       <c r="D249" s="14"/>
       <c r="E249" s="14"/>
       <c r="F249" s="14"/>
@@ -18698,7 +18752,9 @@
     <row r="250" spans="1:51" ht="13.2" customHeight="1">
       <c r="A250" s="16"/>
       <c r="B250" s="14"/>
-      <c r="C250" s="14"/>
+      <c r="C250" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="D250" s="14"/>
       <c r="E250" s="14"/>
       <c r="F250" s="14"/>
@@ -18750,9 +18806,7 @@
     </row>
     <row r="251" spans="1:51" ht="13.2" customHeight="1">
       <c r="A251" s="16"/>
-      <c r="B251" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B251" s="14"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
       <c r="E251" s="14"/>
@@ -18805,7 +18859,9 @@
     </row>
     <row r="252" spans="1:51" ht="13.2" customHeight="1">
       <c r="A252" s="16"/>
-      <c r="B252" s="14"/>
+      <c r="B252" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="14"/>
@@ -18859,9 +18915,7 @@
     <row r="253" spans="1:51" ht="13.2" customHeight="1">
       <c r="A253" s="16"/>
       <c r="B253" s="14"/>
-      <c r="C253" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="C253" s="14"/>
       <c r="D253" s="14"/>
       <c r="E253" s="14"/>
       <c r="F253" s="14"/>
@@ -18914,7 +18968,9 @@
     <row r="254" spans="1:51" ht="13.2" customHeight="1">
       <c r="A254" s="16"/>
       <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
+      <c r="C254" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D254" s="14"/>
       <c r="E254" s="14"/>
       <c r="F254" s="14"/>
@@ -18966,9 +19022,7 @@
     </row>
     <row r="255" spans="1:51" ht="13.2" customHeight="1">
       <c r="A255" s="16"/>
-      <c r="B255" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="B255" s="14"/>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
       <c r="E255" s="14"/>
@@ -19021,7 +19075,9 @@
     </row>
     <row r="256" spans="1:51" ht="13.2" customHeight="1">
       <c r="A256" s="16"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
       <c r="E256" s="14"/>
@@ -19075,9 +19131,7 @@
     <row r="257" spans="1:51" ht="13.2" customHeight="1">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
-      <c r="C257" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="C257" s="14"/>
       <c r="D257" s="14"/>
       <c r="E257" s="14"/>
       <c r="F257" s="14"/>
@@ -19130,7 +19184,9 @@
     <row r="258" spans="1:51" ht="13.2" customHeight="1">
       <c r="A258" s="16"/>
       <c r="B258" s="14"/>
-      <c r="C258" s="14"/>
+      <c r="C258" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="D258" s="14"/>
       <c r="E258" s="14"/>
       <c r="F258" s="14"/>
@@ -19182,9 +19238,7 @@
     </row>
     <row r="259" spans="1:51" ht="13.2" customHeight="1">
       <c r="A259" s="16"/>
-      <c r="B259" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="B259" s="14"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
       <c r="E259" s="14"/>
@@ -19237,7 +19291,9 @@
     </row>
     <row r="260" spans="1:51" ht="13.2" customHeight="1">
       <c r="A260" s="16"/>
-      <c r="B260" s="14"/>
+      <c r="B260" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
       <c r="E260" s="14"/>
@@ -19342,9 +19398,7 @@
       <c r="AY261" s="18"/>
     </row>
     <row r="262" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A262" s="32" t="s">
-        <v>147</v>
-      </c>
+      <c r="A262" s="16"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
@@ -19397,10 +19451,10 @@
       <c r="AY262" s="18"/>
     </row>
     <row r="263" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A263" s="16"/>
-      <c r="B263" s="14" t="s">
-        <v>43</v>
+      <c r="A263" s="32" t="s">
+        <v>147</v>
       </c>
+      <c r="B263" s="14"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
       <c r="E263" s="14"/>
@@ -19453,7 +19507,9 @@
     </row>
     <row r="264" spans="1:51" ht="13.2" customHeight="1">
       <c r="A264" s="16"/>
-      <c r="B264" s="14"/>
+      <c r="B264" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
       <c r="E264" s="14"/>
@@ -19505,110 +19561,110 @@
       <c r="AY264" s="18"/>
     </row>
     <row r="265" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A265" s="19"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="20"/>
-      <c r="E265" s="20"/>
-      <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
-      <c r="L265" s="20"/>
-      <c r="M265" s="20"/>
-      <c r="N265" s="20"/>
-      <c r="O265" s="20"/>
-      <c r="P265" s="20"/>
-      <c r="Q265" s="20"/>
-      <c r="R265" s="20"/>
-      <c r="S265" s="20"/>
-      <c r="T265" s="20"/>
-      <c r="U265" s="20"/>
-      <c r="V265" s="20"/>
-      <c r="W265" s="20"/>
-      <c r="X265" s="20"/>
-      <c r="Y265" s="20"/>
-      <c r="Z265" s="20"/>
-      <c r="AA265" s="20"/>
-      <c r="AB265" s="20"/>
-      <c r="AC265" s="20"/>
-      <c r="AD265" s="20"/>
-      <c r="AE265" s="20"/>
-      <c r="AF265" s="20"/>
-      <c r="AG265" s="20"/>
-      <c r="AH265" s="20"/>
-      <c r="AI265" s="20"/>
-      <c r="AJ265" s="20"/>
-      <c r="AK265" s="20"/>
-      <c r="AL265" s="20"/>
-      <c r="AM265" s="20"/>
-      <c r="AN265" s="20"/>
-      <c r="AO265" s="20"/>
-      <c r="AP265" s="20"/>
-      <c r="AQ265" s="20"/>
-      <c r="AR265" s="20"/>
-      <c r="AS265" s="20"/>
-      <c r="AT265" s="20"/>
-      <c r="AU265" s="20"/>
-      <c r="AV265" s="20"/>
-      <c r="AW265" s="20"/>
-      <c r="AX265" s="20"/>
-      <c r="AY265" s="21"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
+      <c r="P265" s="14"/>
+      <c r="Q265" s="14"/>
+      <c r="R265" s="14"/>
+      <c r="S265" s="14"/>
+      <c r="T265" s="14"/>
+      <c r="U265" s="14"/>
+      <c r="V265" s="14"/>
+      <c r="W265" s="14"/>
+      <c r="X265" s="14"/>
+      <c r="Y265" s="14"/>
+      <c r="Z265" s="14"/>
+      <c r="AA265" s="14"/>
+      <c r="AB265" s="14"/>
+      <c r="AC265" s="14"/>
+      <c r="AD265" s="14"/>
+      <c r="AE265" s="14"/>
+      <c r="AF265" s="14"/>
+      <c r="AG265" s="14"/>
+      <c r="AH265" s="14"/>
+      <c r="AI265" s="14"/>
+      <c r="AJ265" s="14"/>
+      <c r="AK265" s="14"/>
+      <c r="AL265" s="14"/>
+      <c r="AM265" s="14"/>
+      <c r="AN265" s="14"/>
+      <c r="AO265" s="14"/>
+      <c r="AP265" s="14"/>
+      <c r="AQ265" s="14"/>
+      <c r="AR265" s="14"/>
+      <c r="AS265" s="14"/>
+      <c r="AT265" s="14"/>
+      <c r="AU265" s="14"/>
+      <c r="AV265" s="14"/>
+      <c r="AW265" s="14"/>
+      <c r="AX265" s="14"/>
+      <c r="AY265" s="18"/>
     </row>
     <row r="266" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
-      <c r="H266" s="14"/>
-      <c r="I266" s="14"/>
-      <c r="J266" s="14"/>
-      <c r="K266" s="14"/>
-      <c r="L266" s="14"/>
-      <c r="M266" s="14"/>
-      <c r="N266" s="14"/>
-      <c r="O266" s="14"/>
-      <c r="P266" s="14"/>
-      <c r="Q266" s="14"/>
-      <c r="R266" s="14"/>
-      <c r="S266" s="14"/>
-      <c r="T266" s="14"/>
-      <c r="U266" s="14"/>
-      <c r="V266" s="14"/>
-      <c r="W266" s="14"/>
-      <c r="X266" s="14"/>
-      <c r="Y266" s="14"/>
-      <c r="Z266" s="14"/>
-      <c r="AA266" s="14"/>
-      <c r="AB266" s="14"/>
-      <c r="AC266" s="14"/>
-      <c r="AD266" s="14"/>
-      <c r="AE266" s="14"/>
-      <c r="AF266" s="14"/>
-      <c r="AG266" s="14"/>
-      <c r="AH266" s="14"/>
-      <c r="AI266" s="14"/>
-      <c r="AJ266" s="14"/>
-      <c r="AK266" s="14"/>
-      <c r="AL266" s="14"/>
-      <c r="AM266" s="14"/>
-      <c r="AN266" s="14"/>
-      <c r="AO266" s="14"/>
-      <c r="AP266" s="14"/>
-      <c r="AQ266" s="14"/>
-      <c r="AR266" s="14"/>
-      <c r="AS266" s="14"/>
-      <c r="AT266" s="14"/>
-      <c r="AU266" s="14"/>
-      <c r="AV266" s="14"/>
-      <c r="AW266" s="14"/>
-      <c r="AX266" s="14"/>
-      <c r="AY266" s="14"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="20"/>
+      <c r="N266" s="20"/>
+      <c r="O266" s="20"/>
+      <c r="P266" s="20"/>
+      <c r="Q266" s="20"/>
+      <c r="R266" s="20"/>
+      <c r="S266" s="20"/>
+      <c r="T266" s="20"/>
+      <c r="U266" s="20"/>
+      <c r="V266" s="20"/>
+      <c r="W266" s="20"/>
+      <c r="X266" s="20"/>
+      <c r="Y266" s="20"/>
+      <c r="Z266" s="20"/>
+      <c r="AA266" s="20"/>
+      <c r="AB266" s="20"/>
+      <c r="AC266" s="20"/>
+      <c r="AD266" s="20"/>
+      <c r="AE266" s="20"/>
+      <c r="AF266" s="20"/>
+      <c r="AG266" s="20"/>
+      <c r="AH266" s="20"/>
+      <c r="AI266" s="20"/>
+      <c r="AJ266" s="20"/>
+      <c r="AK266" s="20"/>
+      <c r="AL266" s="20"/>
+      <c r="AM266" s="20"/>
+      <c r="AN266" s="20"/>
+      <c r="AO266" s="20"/>
+      <c r="AP266" s="20"/>
+      <c r="AQ266" s="20"/>
+      <c r="AR266" s="20"/>
+      <c r="AS266" s="20"/>
+      <c r="AT266" s="20"/>
+      <c r="AU266" s="20"/>
+      <c r="AV266" s="20"/>
+      <c r="AW266" s="20"/>
+      <c r="AX266" s="20"/>
+      <c r="AY266" s="21"/>
     </row>
     <row r="267" spans="1:51" ht="13.2" customHeight="1">
       <c r="A267" s="14"/>
@@ -52790,6 +52846,7 @@
     </row>
     <row r="893" spans="1:51" ht="13.2" customHeight="1">
       <c r="A893" s="14"/>
+      <c r="B893" s="14"/>
       <c r="C893" s="14"/>
       <c r="D893" s="14"/>
       <c r="E893" s="14"/>
@@ -52841,6 +52898,7 @@
       <c r="AY893" s="14"/>
     </row>
     <row r="894" spans="1:51" ht="13.2" customHeight="1">
+      <c r="A894" s="14"/>
       <c r="C894" s="14"/>
       <c r="D894" s="14"/>
       <c r="E894" s="14"/>
@@ -52867,6 +52925,27 @@
       <c r="Z894" s="14"/>
       <c r="AA894" s="14"/>
       <c r="AB894" s="14"/>
+      <c r="AC894" s="14"/>
+      <c r="AD894" s="14"/>
+      <c r="AE894" s="14"/>
+      <c r="AF894" s="14"/>
+      <c r="AG894" s="14"/>
+      <c r="AH894" s="14"/>
+      <c r="AI894" s="14"/>
+      <c r="AJ894" s="14"/>
+      <c r="AK894" s="14"/>
+      <c r="AL894" s="14"/>
+      <c r="AM894" s="14"/>
+      <c r="AN894" s="14"/>
+      <c r="AO894" s="14"/>
+      <c r="AP894" s="14"/>
+      <c r="AQ894" s="14"/>
+      <c r="AR894" s="14"/>
+      <c r="AS894" s="14"/>
+      <c r="AT894" s="14"/>
+      <c r="AU894" s="14"/>
+      <c r="AV894" s="14"/>
+      <c r="AW894" s="14"/>
       <c r="AX894" s="14"/>
       <c r="AY894" s="14"/>
     </row>
@@ -52897,6 +52976,8 @@
       <c r="Z895" s="14"/>
       <c r="AA895" s="14"/>
       <c r="AB895" s="14"/>
+      <c r="AX895" s="14"/>
+      <c r="AY895" s="14"/>
     </row>
     <row r="896" spans="1:51" ht="13.2" customHeight="1">
       <c r="C896" s="14"/>
@@ -53147,6 +53228,8 @@
       <c r="X904" s="14"/>
       <c r="Y904" s="14"/>
       <c r="Z904" s="14"/>
+      <c r="AA904" s="14"/>
+      <c r="AB904" s="14"/>
     </row>
     <row r="905" spans="3:28" ht="13.2" customHeight="1">
       <c r="C905" s="14"/>
@@ -53850,8 +53933,41 @@
       <c r="Y931" s="14"/>
       <c r="Z931" s="14"/>
     </row>
+    <row r="932" spans="3:26" ht="13.2" customHeight="1">
+      <c r="C932" s="14"/>
+      <c r="D932" s="14"/>
+      <c r="E932" s="14"/>
+      <c r="F932" s="14"/>
+      <c r="G932" s="14"/>
+      <c r="H932" s="14"/>
+      <c r="I932" s="14"/>
+      <c r="J932" s="14"/>
+      <c r="K932" s="14"/>
+      <c r="L932" s="14"/>
+      <c r="M932" s="14"/>
+      <c r="N932" s="14"/>
+      <c r="O932" s="14"/>
+      <c r="P932" s="14"/>
+      <c r="Q932" s="14"/>
+      <c r="R932" s="14"/>
+      <c r="S932" s="14"/>
+      <c r="T932" s="14"/>
+      <c r="U932" s="14"/>
+      <c r="V932" s="14"/>
+      <c r="W932" s="14"/>
+      <c r="X932" s="14"/>
+      <c r="Y932" s="14"/>
+      <c r="Z932" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="I129:P129"/>
     <mergeCell ref="AG113:AN113"/>
@@ -53862,13 +53978,6 @@
     <mergeCell ref="AG118:AN118"/>
     <mergeCell ref="K1:AI1"/>
     <mergeCell ref="K2:AI2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AM2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
